--- a/Code/Results/Cases/Case_9_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.40187874425927</v>
+        <v>18.09602223379513</v>
       </c>
       <c r="C2">
-        <v>11.56797454545568</v>
+        <v>11.57400218243371</v>
       </c>
       <c r="D2">
-        <v>5.634808415155511</v>
+        <v>5.664468001720814</v>
       </c>
       <c r="E2">
-        <v>8.402928275278125</v>
+        <v>8.329929692260944</v>
       </c>
       <c r="F2">
-        <v>21.7622622369108</v>
+        <v>21.24707001945143</v>
       </c>
       <c r="G2">
-        <v>24.94175240149887</v>
+        <v>23.55090178416635</v>
       </c>
       <c r="H2">
-        <v>2.47018903344461</v>
+        <v>2.390268648482017</v>
       </c>
       <c r="I2">
-        <v>3.076427853090025</v>
+        <v>2.962652065725247</v>
       </c>
       <c r="J2">
-        <v>9.546361277986509</v>
+        <v>9.75493576066596</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.379485013814228</v>
+        <v>12.4595580055582</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.787830425828981</v>
       </c>
       <c r="N2">
-        <v>6.653580376214771</v>
+        <v>6.331172204079831</v>
       </c>
       <c r="O2">
-        <v>11.99826347802652</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.06926737326283</v>
+        <v>6.8412235856723</v>
       </c>
       <c r="Q2">
-        <v>15.87223300597329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.9465754107563</v>
+      </c>
+      <c r="R2">
+        <v>13.01558104105938</v>
+      </c>
+      <c r="S2">
+        <v>15.47041545087824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.23795332575671</v>
+        <v>16.96577665810856</v>
       </c>
       <c r="C3">
-        <v>11.18729074792587</v>
+        <v>11.10037473475185</v>
       </c>
       <c r="D3">
-        <v>5.546391843189771</v>
+        <v>5.577785431173759</v>
       </c>
       <c r="E3">
-        <v>8.360249391720258</v>
+        <v>8.296321392442458</v>
       </c>
       <c r="F3">
-        <v>21.46867795459942</v>
+        <v>20.99368440979649</v>
       </c>
       <c r="G3">
-        <v>24.41534293157696</v>
+        <v>23.11629991680076</v>
       </c>
       <c r="H3">
-        <v>2.654825457029923</v>
+        <v>2.562780054088813</v>
       </c>
       <c r="I3">
-        <v>3.222255953696317</v>
+        <v>3.092727603030182</v>
       </c>
       <c r="J3">
-        <v>9.535193878849052</v>
+        <v>9.723125046354079</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.353289332417231</v>
+        <v>12.5990708686777</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.803661903300229</v>
       </c>
       <c r="N3">
-        <v>6.502940800819666</v>
+        <v>6.305667519950907</v>
       </c>
       <c r="O3">
-        <v>11.47047618011197</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.14937827927976</v>
+        <v>6.686001912283332</v>
       </c>
       <c r="Q3">
-        <v>15.74631762512558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.42068642244109</v>
+      </c>
+      <c r="R3">
+        <v>13.0739894265923</v>
+      </c>
+      <c r="S3">
+        <v>15.37162923281319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.47981273939917</v>
+        <v>16.22856253230982</v>
       </c>
       <c r="C4">
-        <v>10.94763567525773</v>
+        <v>10.80159181117991</v>
       </c>
       <c r="D4">
-        <v>5.49238299165739</v>
+        <v>5.525047323816101</v>
       </c>
       <c r="E4">
-        <v>8.333347144499864</v>
+        <v>8.275097753688256</v>
       </c>
       <c r="F4">
-        <v>21.29393627615172</v>
+        <v>20.84253543857108</v>
       </c>
       <c r="G4">
-        <v>24.09689114518412</v>
+        <v>22.85609802208969</v>
       </c>
       <c r="H4">
-        <v>2.772473825723742</v>
+        <v>2.672744647021858</v>
       </c>
       <c r="I4">
-        <v>3.315966244891059</v>
+        <v>3.176636450422427</v>
       </c>
       <c r="J4">
-        <v>9.531184382278205</v>
+        <v>9.704524978670069</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.336432258242398</v>
+        <v>12.68646075124977</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.831485303274821</v>
       </c>
       <c r="N4">
-        <v>6.409380485658146</v>
+        <v>6.289301753655563</v>
       </c>
       <c r="O4">
-        <v>11.1340397355293</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.20104720451445</v>
+        <v>6.589953983835352</v>
       </c>
       <c r="Q4">
-        <v>15.67418632731528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.08511966065843</v>
+      </c>
+      <c r="R4">
+        <v>13.11270643046623</v>
+      </c>
+      <c r="S4">
+        <v>15.31510088214879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.15497253659243</v>
+        <v>15.91226505413556</v>
       </c>
       <c r="C5">
-        <v>10.85440129947416</v>
+        <v>10.68435862093311</v>
       </c>
       <c r="D5">
-        <v>5.47072590314099</v>
+        <v>5.503966987942053</v>
       </c>
       <c r="E5">
-        <v>8.3215787229925</v>
+        <v>8.26569079552176</v>
       </c>
       <c r="F5">
-        <v>21.21826004628465</v>
+        <v>20.7761921924615</v>
       </c>
       <c r="G5">
-        <v>23.95791197494102</v>
+        <v>22.74116826698124</v>
       </c>
       <c r="H5">
-        <v>2.821799001155412</v>
+        <v>2.718868731897086</v>
       </c>
       <c r="I5">
-        <v>3.357909759407282</v>
+        <v>3.215017974738511</v>
       </c>
       <c r="J5">
-        <v>9.528538883406824</v>
+        <v>9.695444301674952</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.329163668608839</v>
+        <v>12.71848831991692</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.84511645847256</v>
       </c>
       <c r="N5">
-        <v>6.37234862591798</v>
+        <v>6.282270001447017</v>
       </c>
       <c r="O5">
-        <v>10.99336523193831</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.2233125717891</v>
+        <v>6.551994265405832</v>
       </c>
       <c r="Q5">
-        <v>15.6417601687626</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.94471708852356</v>
+      </c>
+      <c r="R5">
+        <v>13.12986865711231</v>
+      </c>
+      <c r="S5">
+        <v>15.28877756552811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.09425243837653</v>
+        <v>15.85293776999798</v>
       </c>
       <c r="C6">
-        <v>10.8459985477772</v>
+        <v>10.67263635809701</v>
       </c>
       <c r="D6">
-        <v>5.467458158591949</v>
+        <v>5.500806061019991</v>
       </c>
       <c r="E6">
-        <v>8.318847719705385</v>
+        <v>8.263378130418895</v>
       </c>
       <c r="F6">
-        <v>21.19856451293607</v>
+        <v>20.75804137849765</v>
       </c>
       <c r="G6">
-        <v>23.92202546377241</v>
+        <v>22.70918338369674</v>
       </c>
       <c r="H6">
-        <v>2.830413505490319</v>
+        <v>2.726937632358863</v>
       </c>
       <c r="I6">
-        <v>3.368406407091452</v>
+        <v>3.225535430648669</v>
       </c>
       <c r="J6">
-        <v>9.5260439881071</v>
+        <v>9.691829232035952</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.32769878407919</v>
+        <v>12.71892469671376</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.84493568848508</v>
       </c>
       <c r="N6">
-        <v>6.367813255504269</v>
+        <v>6.280869628421303</v>
       </c>
       <c r="O6">
-        <v>10.9690741010009</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.2277808938846</v>
+        <v>6.547308368090383</v>
       </c>
       <c r="Q6">
-        <v>15.63115903182609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.92046134699805</v>
+      </c>
+      <c r="R6">
+        <v>13.13359850474211</v>
+      </c>
+      <c r="S6">
+        <v>15.27919339396841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.45913430517731</v>
+        <v>16.20220331951715</v>
       </c>
       <c r="C7">
-        <v>10.96578927425588</v>
+        <v>10.8159452094996</v>
       </c>
       <c r="D7">
-        <v>5.492968892453542</v>
+        <v>5.528024349948534</v>
       </c>
       <c r="E7">
-        <v>8.331118706080707</v>
+        <v>8.27323302563601</v>
       </c>
       <c r="F7">
-        <v>21.27329941824179</v>
+        <v>20.81098385827802</v>
       </c>
       <c r="G7">
-        <v>24.06004652585172</v>
+        <v>22.9019964975393</v>
       </c>
       <c r="H7">
-        <v>2.77409432118487</v>
+        <v>2.674828138878478</v>
       </c>
       <c r="I7">
-        <v>3.325702956906223</v>
+        <v>3.188436938133612</v>
       </c>
       <c r="J7">
-        <v>9.525429279803168</v>
+        <v>9.661896294026658</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.335680536360686</v>
+        <v>12.66910372587936</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.82113917460436</v>
       </c>
       <c r="N7">
-        <v>6.413290672506161</v>
+        <v>6.288385012645074</v>
       </c>
       <c r="O7">
-        <v>11.13010854098593</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.20341822566311</v>
+        <v>6.593602046460073</v>
       </c>
       <c r="Q7">
-        <v>15.65933237909864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.07898655604729</v>
+      </c>
+      <c r="R7">
+        <v>13.1162503554459</v>
+      </c>
+      <c r="S7">
+        <v>15.29139184678499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.9896043684649</v>
+        <v>17.67764959102998</v>
       </c>
       <c r="C8">
-        <v>11.46295958747292</v>
+        <v>11.42271319901623</v>
       </c>
       <c r="D8">
-        <v>5.605425671518625</v>
+        <v>5.643440457874812</v>
       </c>
       <c r="E8">
-        <v>8.385707963258696</v>
+        <v>8.31686774209286</v>
       </c>
       <c r="F8">
-        <v>21.634466963782</v>
+        <v>21.0972935437431</v>
       </c>
       <c r="G8">
-        <v>24.71430705054881</v>
+        <v>23.62402537875708</v>
       </c>
       <c r="H8">
-        <v>2.534163528082608</v>
+        <v>2.451722704393704</v>
       </c>
       <c r="I8">
-        <v>3.137572580828713</v>
+        <v>3.021996775077083</v>
       </c>
       <c r="J8">
-        <v>9.534408340934684</v>
+        <v>9.616416940508339</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.369818580790213</v>
+        <v>12.47723576794983</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.767204742473263</v>
       </c>
       <c r="N8">
-        <v>6.60756248565189</v>
+        <v>6.32110774701012</v>
       </c>
       <c r="O8">
-        <v>11.8163513636308</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.09941003459716</v>
+        <v>6.792784157795372</v>
       </c>
       <c r="Q8">
-        <v>15.80892239267337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.75843662750855</v>
+      </c>
+      <c r="R8">
+        <v>13.04208750550294</v>
+      </c>
+      <c r="S8">
+        <v>15.3872637378116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.6706338551394</v>
+        <v>20.27462881980171</v>
       </c>
       <c r="C9">
-        <v>12.35480283724726</v>
+        <v>12.52803452718961</v>
       </c>
       <c r="D9">
-        <v>5.825812887630271</v>
+        <v>5.862457371237246</v>
       </c>
       <c r="E9">
-        <v>8.490921942054671</v>
+        <v>8.400347471719877</v>
       </c>
       <c r="F9">
-        <v>22.41865601564788</v>
+        <v>21.7674396664357</v>
       </c>
       <c r="G9">
-        <v>26.08958636753561</v>
+        <v>24.84250051287219</v>
       </c>
       <c r="H9">
-        <v>2.095465602297987</v>
+        <v>2.042309398838326</v>
       </c>
       <c r="I9">
-        <v>2.786355943284585</v>
+        <v>2.707941690230885</v>
       </c>
       <c r="J9">
-        <v>9.585295460946519</v>
+        <v>9.676206508850919</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.4318048682299</v>
+        <v>12.15237952553578</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.832738475378202</v>
       </c>
       <c r="N9">
-        <v>6.971005924066234</v>
+        <v>6.381556565399314</v>
       </c>
       <c r="O9">
-        <v>13.06152105418856</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.91135508828165</v>
+        <v>7.169073946133629</v>
       </c>
       <c r="Q9">
-        <v>16.16891761527539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.99621663711577</v>
+      </c>
+      <c r="R9">
+        <v>12.91162711838618</v>
+      </c>
+      <c r="S9">
+        <v>15.66664419622257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.38437542302093</v>
+        <v>21.90984094426688</v>
       </c>
       <c r="C10">
-        <v>13.01672393435515</v>
+        <v>13.30439180547891</v>
       </c>
       <c r="D10">
-        <v>5.958635832887095</v>
+        <v>6.00769879904957</v>
       </c>
       <c r="E10">
-        <v>8.52871496593799</v>
+        <v>8.427004651604769</v>
       </c>
       <c r="F10">
-        <v>22.89900717824556</v>
+        <v>22.10824261127554</v>
       </c>
       <c r="G10">
-        <v>26.94752522220077</v>
+        <v>26.04707799102914</v>
       </c>
       <c r="H10">
-        <v>1.822094722301279</v>
+        <v>1.791621316999752</v>
       </c>
       <c r="I10">
-        <v>2.558382019307284</v>
+        <v>2.509629163754132</v>
       </c>
       <c r="J10">
-        <v>9.608928009607011</v>
+        <v>9.500004933618349</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.472131036289938</v>
+        <v>11.86491857896417</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.90267259463462</v>
       </c>
       <c r="N10">
-        <v>7.170143711648505</v>
+        <v>6.421925828716303</v>
       </c>
       <c r="O10">
-        <v>13.84341729917216</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.8006363449222</v>
+        <v>7.375595069417737</v>
       </c>
       <c r="Q10">
-        <v>16.38775336772332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.76155101140446</v>
+      </c>
+      <c r="R10">
+        <v>12.8538367858109</v>
+      </c>
+      <c r="S10">
+        <v>15.77794168683831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.77535744883339</v>
+        <v>22.27560500224343</v>
       </c>
       <c r="C11">
-        <v>13.61570469747853</v>
+        <v>13.87160625102654</v>
       </c>
       <c r="D11">
-        <v>5.76872501233311</v>
+        <v>5.839691113306</v>
       </c>
       <c r="E11">
-        <v>8.302423924152929</v>
+        <v>8.215718089655436</v>
       </c>
       <c r="F11">
-        <v>22.14586097541919</v>
+        <v>21.2576560831911</v>
       </c>
       <c r="G11">
-        <v>26.0049554893596</v>
+        <v>26.10270317233779</v>
       </c>
       <c r="H11">
-        <v>2.802141371874284</v>
+        <v>2.788997949204561</v>
       </c>
       <c r="I11">
-        <v>2.513939499062159</v>
+        <v>2.540222646212258</v>
       </c>
       <c r="J11">
-        <v>9.388711783349631</v>
+        <v>8.922278055588688</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.514437103998001</v>
+        <v>11.43129433719819</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.562652884026861</v>
       </c>
       <c r="N11">
-        <v>6.74195963615661</v>
+        <v>6.47818812246103</v>
       </c>
       <c r="O11">
-        <v>13.64351159276206</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.88581571181774</v>
+        <v>6.93170638198886</v>
       </c>
       <c r="Q11">
-        <v>15.91343350459662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.5413256328585</v>
+      </c>
+      <c r="R11">
+        <v>12.98556247160931</v>
+      </c>
+      <c r="S11">
+        <v>15.22196659544051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.77273918095106</v>
+        <v>22.27702125233118</v>
       </c>
       <c r="C12">
-        <v>13.96735483146417</v>
+        <v>14.18301905981068</v>
       </c>
       <c r="D12">
-        <v>5.580197151414318</v>
+        <v>5.65740811462797</v>
       </c>
       <c r="E12">
-        <v>8.20006738509613</v>
+        <v>8.123707800224974</v>
       </c>
       <c r="F12">
-        <v>21.42245171144233</v>
+        <v>20.52127104616497</v>
       </c>
       <c r="G12">
-        <v>25.05570934763027</v>
+        <v>25.65141185315814</v>
       </c>
       <c r="H12">
-        <v>4.174682134903689</v>
+        <v>4.166943333229005</v>
       </c>
       <c r="I12">
-        <v>2.503071883816012</v>
+        <v>2.547826200160284</v>
       </c>
       <c r="J12">
-        <v>9.202337054521509</v>
+        <v>8.620344170715031</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.591696326691793</v>
+        <v>11.16718557567444</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.283825533372735</v>
       </c>
       <c r="N12">
-        <v>6.348595468357853</v>
+        <v>6.566298688449454</v>
       </c>
       <c r="O12">
-        <v>13.30786696091227</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.99082931811276</v>
+        <v>6.52339723537521</v>
       </c>
       <c r="Q12">
-        <v>15.4782329984799</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.1987302358852</v>
+      </c>
+      <c r="R12">
+        <v>13.11271933782596</v>
+      </c>
+      <c r="S12">
+        <v>14.77383984056196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.44837226466164</v>
+        <v>21.9910995088172</v>
       </c>
       <c r="C13">
-        <v>14.18143090684458</v>
+        <v>14.36315260275167</v>
       </c>
       <c r="D13">
-        <v>5.381668017036071</v>
+        <v>5.449157650911292</v>
       </c>
       <c r="E13">
-        <v>8.184269485241323</v>
+        <v>8.118215586859973</v>
       </c>
       <c r="F13">
-        <v>20.64228503400346</v>
+        <v>19.81679436347443</v>
       </c>
       <c r="G13">
-        <v>23.97742221177804</v>
+        <v>24.51946125012347</v>
       </c>
       <c r="H13">
-        <v>5.59489278364575</v>
+        <v>5.587746795482273</v>
       </c>
       <c r="I13">
-        <v>2.533414613011552</v>
+        <v>2.519869586889107</v>
       </c>
       <c r="J13">
-        <v>9.021547939201673</v>
+        <v>8.534913309795046</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.695478746642635</v>
+        <v>10.99516860100513</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.032720479413326</v>
       </c>
       <c r="N13">
-        <v>5.964956345615913</v>
+        <v>6.679226948857477</v>
       </c>
       <c r="O13">
-        <v>12.83665044800132</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>13.11646415626641</v>
+        <v>6.125211025385921</v>
       </c>
       <c r="Q13">
-        <v>15.02196228581773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.7347650437628</v>
+      </c>
+      <c r="R13">
+        <v>13.23658201367639</v>
+      </c>
+      <c r="S13">
+        <v>14.37704700915735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.06705890629275</v>
+        <v>21.65247089860432</v>
       </c>
       <c r="C14">
-        <v>14.27680800584977</v>
+        <v>14.43758279559427</v>
       </c>
       <c r="D14">
-        <v>5.23918398290234</v>
+        <v>5.293861369181657</v>
       </c>
       <c r="E14">
-        <v>8.224187280081836</v>
+        <v>8.166785786091241</v>
       </c>
       <c r="F14">
-        <v>20.06481690431772</v>
+        <v>19.32967047354038</v>
       </c>
       <c r="G14">
-        <v>23.1497920887669</v>
+        <v>23.4153171976374</v>
       </c>
       <c r="H14">
-        <v>6.602566691719383</v>
+        <v>6.594809857605218</v>
       </c>
       <c r="I14">
-        <v>2.576509661537727</v>
+        <v>2.535856690066717</v>
       </c>
       <c r="J14">
-        <v>8.896635478023603</v>
+        <v>8.557836725798632</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.784237728136899</v>
+        <v>10.909560218755</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.871075700518892</v>
       </c>
       <c r="N14">
-        <v>5.707618053844472</v>
+        <v>6.773271205572843</v>
       </c>
       <c r="O14">
-        <v>12.43946117726283</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>13.21462854965641</v>
+        <v>5.858001564154828</v>
       </c>
       <c r="Q14">
-        <v>14.68956962787903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.34878326187173</v>
+      </c>
+      <c r="R14">
+        <v>13.32182528426618</v>
+      </c>
+      <c r="S14">
+        <v>14.11650501897247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.89903664924012</v>
+        <v>21.50130300316665</v>
       </c>
       <c r="C15">
-        <v>14.27722169644037</v>
+        <v>14.43435596124821</v>
       </c>
       <c r="D15">
-        <v>5.202590403742964</v>
+        <v>5.2518018208378</v>
       </c>
       <c r="E15">
-        <v>8.239227812479081</v>
+        <v>8.184942205830554</v>
       </c>
       <c r="F15">
-        <v>19.90764447146093</v>
+        <v>19.21025105434661</v>
       </c>
       <c r="G15">
-        <v>22.9109531412896</v>
+        <v>23.00862666968333</v>
       </c>
       <c r="H15">
-        <v>6.837321280096369</v>
+        <v>6.828995686932475</v>
       </c>
       <c r="I15">
-        <v>2.600900213676456</v>
+        <v>2.557989816381101</v>
       </c>
       <c r="J15">
-        <v>8.866196612767721</v>
+        <v>8.59855078000235</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.805090242155087</v>
+        <v>10.90109179901368</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.835461647701456</v>
       </c>
       <c r="N15">
-        <v>5.646239067643885</v>
+        <v>6.795220855755158</v>
       </c>
       <c r="O15">
-        <v>12.31292895487343</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>13.2421792779333</v>
+        <v>5.794494402040701</v>
       </c>
       <c r="Q15">
-        <v>14.60075884251702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.22758540647849</v>
+      </c>
+      <c r="R15">
+        <v>13.34144999968808</v>
+      </c>
+      <c r="S15">
+        <v>14.057936345857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.2314845213646</v>
+        <v>20.8850941879901</v>
       </c>
       <c r="C16">
-        <v>13.97757937791075</v>
+        <v>14.13950364950212</v>
       </c>
       <c r="D16">
-        <v>5.184096602316634</v>
+        <v>5.213902756090468</v>
       </c>
       <c r="E16">
-        <v>8.219810164679501</v>
+        <v>8.173319692842879</v>
       </c>
       <c r="F16">
-        <v>19.8327310577538</v>
+        <v>19.26588806838323</v>
       </c>
       <c r="G16">
-        <v>22.7023566604272</v>
+        <v>21.9863102847359</v>
       </c>
       <c r="H16">
-        <v>6.638674733226023</v>
+        <v>6.625773092379286</v>
       </c>
       <c r="I16">
-        <v>2.697818337793102</v>
+        <v>2.640939814525271</v>
       </c>
       <c r="J16">
-        <v>8.888217331832738</v>
+        <v>8.925202928601877</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.761339905892372</v>
+        <v>11.04189102474766</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.897127941092501</v>
       </c>
       <c r="N16">
-        <v>5.634641168311285</v>
+        <v>6.750311280622616</v>
       </c>
       <c r="O16">
-        <v>12.05548089558513</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>13.25265088712608</v>
+        <v>5.785483332807799</v>
       </c>
       <c r="Q16">
-        <v>14.58354514596662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.99171360521286</v>
+      </c>
+      <c r="R16">
+        <v>13.31124100167061</v>
+      </c>
+      <c r="S16">
+        <v>14.14591622266037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.92108751446586</v>
+        <v>20.59478987970471</v>
       </c>
       <c r="C17">
-        <v>13.6922543637339</v>
+        <v>13.86097432727466</v>
       </c>
       <c r="D17">
-        <v>5.245872704533318</v>
+        <v>5.269465201914099</v>
       </c>
       <c r="E17">
-        <v>8.176074267708698</v>
+        <v>8.128373273534633</v>
       </c>
       <c r="F17">
-        <v>20.08620213151111</v>
+        <v>19.55797776736775</v>
       </c>
       <c r="G17">
-        <v>22.99299852133984</v>
+        <v>21.91740196395726</v>
       </c>
       <c r="H17">
-        <v>5.920640552162748</v>
+        <v>5.903535659316836</v>
       </c>
       <c r="I17">
-        <v>2.750106630087042</v>
+        <v>2.686377021289233</v>
       </c>
       <c r="J17">
-        <v>8.971727742068088</v>
+        <v>9.136252394815264</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.677345103924752</v>
+        <v>11.20060541178708</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.021370167286923</v>
       </c>
       <c r="N17">
-        <v>5.760517573821448</v>
+        <v>6.662611751755669</v>
       </c>
       <c r="O17">
-        <v>12.07509999629604</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>13.21026479655282</v>
+        <v>5.918093347870081</v>
       </c>
       <c r="Q17">
-        <v>14.74881731200472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.01922578039192</v>
+      </c>
+      <c r="R17">
+        <v>13.2490758166445</v>
+      </c>
+      <c r="S17">
+        <v>14.34261115488163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.90368742951085</v>
+        <v>20.56777973294867</v>
       </c>
       <c r="C18">
-        <v>13.37635535739732</v>
+        <v>13.56278771522396</v>
       </c>
       <c r="D18">
-        <v>5.385441682138934</v>
+        <v>5.408572047859503</v>
       </c>
       <c r="E18">
-        <v>8.154375783338073</v>
+        <v>8.097512647262118</v>
       </c>
       <c r="F18">
-        <v>20.66180011328181</v>
+        <v>20.12047358815749</v>
       </c>
       <c r="G18">
-        <v>23.76502707608253</v>
+        <v>22.50293951449754</v>
       </c>
       <c r="H18">
-        <v>4.705055347845776</v>
+        <v>4.682505179968911</v>
       </c>
       <c r="I18">
-        <v>2.757519807456685</v>
+        <v>2.689848932659802</v>
       </c>
       <c r="J18">
-        <v>9.120659657769412</v>
+        <v>9.327964950624825</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.570214193008379</v>
+        <v>11.41192508077952</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.224660881676654</v>
       </c>
       <c r="N18">
-        <v>6.032933064953919</v>
+        <v>6.548684095777338</v>
       </c>
       <c r="O18">
-        <v>12.33755013863562</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>13.11977261199705</v>
+        <v>6.201530890367144</v>
       </c>
       <c r="Q18">
-        <v>15.09758521005147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.282723073418</v>
+      </c>
+      <c r="R18">
+        <v>13.14893599314919</v>
+      </c>
+      <c r="S18">
+        <v>14.6821330551854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.09773063966766</v>
+        <v>20.73358500863224</v>
       </c>
       <c r="C19">
-        <v>13.10346759202006</v>
+        <v>13.31977874855549</v>
       </c>
       <c r="D19">
-        <v>5.582117645855281</v>
+        <v>5.607854184373474</v>
       </c>
       <c r="E19">
-        <v>8.221301287475326</v>
+        <v>8.149354109010103</v>
       </c>
       <c r="F19">
-        <v>21.41969008207269</v>
+        <v>20.83385524989453</v>
       </c>
       <c r="G19">
-        <v>24.80034345737431</v>
+        <v>23.43281853252814</v>
       </c>
       <c r="H19">
-        <v>3.2919608174489</v>
+        <v>3.261245892907703</v>
       </c>
       <c r="I19">
-        <v>2.746871533012776</v>
+        <v>2.681756680890212</v>
       </c>
       <c r="J19">
-        <v>9.301544268034103</v>
+        <v>9.505770880742398</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.48604875897882</v>
+        <v>11.64255712895565</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.466727991307813</v>
       </c>
       <c r="N19">
-        <v>6.429806500319302</v>
+        <v>6.45477553166081</v>
       </c>
       <c r="O19">
-        <v>12.76656011361461</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>13.01204634824025</v>
+        <v>6.612217527386425</v>
       </c>
       <c r="Q19">
-        <v>15.54278314553242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.70886018952454</v>
+      </c>
+      <c r="R19">
+        <v>13.03771650470762</v>
+      </c>
+      <c r="S19">
+        <v>15.09376457183759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.90702233431305</v>
+        <v>21.46752972934626</v>
       </c>
       <c r="C20">
-        <v>12.90156342294262</v>
+        <v>13.18065354642649</v>
       </c>
       <c r="D20">
-        <v>5.925070853748927</v>
+        <v>5.962805723004234</v>
       </c>
       <c r="E20">
-        <v>8.511643222828244</v>
+        <v>8.412035141602813</v>
       </c>
       <c r="F20">
-        <v>22.70995652319618</v>
+        <v>21.9939375430273</v>
       </c>
       <c r="G20">
-        <v>26.61679199700205</v>
+        <v>25.3519471995979</v>
       </c>
       <c r="H20">
-        <v>1.894278572879637</v>
+        <v>1.856294495581301</v>
       </c>
       <c r="I20">
-        <v>2.649497884546081</v>
+        <v>2.59747641139074</v>
       </c>
       <c r="J20">
-        <v>9.583315865727135</v>
+        <v>9.651392270629296</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.46016481288677</v>
+        <v>11.92044922744912</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.858056246959821</v>
       </c>
       <c r="N20">
-        <v>7.127894897370685</v>
+        <v>6.410935409294346</v>
       </c>
       <c r="O20">
-        <v>13.63439478754705</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.83801000314</v>
+        <v>7.332167157166869</v>
       </c>
       <c r="Q20">
-        <v>16.28323500191298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.56349483345702</v>
+      </c>
+      <c r="R20">
+        <v>12.87383767236554</v>
+      </c>
+      <c r="S20">
+        <v>15.73366451929617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.22480364426105</v>
+        <v>22.65923455333088</v>
       </c>
       <c r="C21">
-        <v>13.33596720507311</v>
+        <v>13.61962870892725</v>
       </c>
       <c r="D21">
-        <v>6.071493205476436</v>
+        <v>6.163042485408135</v>
       </c>
       <c r="E21">
-        <v>8.59620442327812</v>
+        <v>8.49191936224217</v>
       </c>
       <c r="F21">
-        <v>23.26755202381942</v>
+        <v>22.23768124199033</v>
       </c>
       <c r="G21">
-        <v>27.53109548109757</v>
+        <v>27.95135793295569</v>
       </c>
       <c r="H21">
-        <v>1.646849911830556</v>
+        <v>1.633685485065121</v>
       </c>
       <c r="I21">
-        <v>2.548530467113356</v>
+        <v>2.591163354623736</v>
       </c>
       <c r="J21">
-        <v>9.650275103034733</v>
+        <v>8.953900932151186</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.492868051199661</v>
+        <v>11.69986677305728</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.923358902227692</v>
       </c>
       <c r="N21">
-        <v>7.371111310436699</v>
+        <v>6.437788923350609</v>
       </c>
       <c r="O21">
-        <v>14.30910592587633</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.73581218714075</v>
+        <v>7.580232988161499</v>
       </c>
       <c r="Q21">
-        <v>16.56836447992059</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.19046917373681</v>
+      </c>
+      <c r="R21">
+        <v>12.83742712899798</v>
+      </c>
+      <c r="S21">
+        <v>15.76366098038909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.0511871764965</v>
+        <v>23.39887503250447</v>
       </c>
       <c r="C22">
-        <v>13.60785581878133</v>
+        <v>13.8853295692278</v>
       </c>
       <c r="D22">
-        <v>6.150790722503038</v>
+        <v>6.281353702000897</v>
       </c>
       <c r="E22">
-        <v>8.635152713003022</v>
+        <v>8.530893019319356</v>
       </c>
       <c r="F22">
-        <v>23.60180302102421</v>
+        <v>22.35535167448749</v>
       </c>
       <c r="G22">
-        <v>28.09094848970764</v>
+        <v>29.7234681707888</v>
       </c>
       <c r="H22">
-        <v>1.618703359983571</v>
+        <v>1.616121598820759</v>
       </c>
       <c r="I22">
-        <v>2.654992685265916</v>
+        <v>2.67905678880421</v>
       </c>
       <c r="J22">
-        <v>9.69083003750441</v>
+        <v>8.508956590741841</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.513457449988334</v>
+        <v>11.55016958136058</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.96597880849931</v>
       </c>
       <c r="N22">
-        <v>7.491360663627717</v>
+        <v>6.455573994085646</v>
       </c>
       <c r="O22">
-        <v>14.70610486567056</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.67434057670404</v>
+        <v>7.702544356850938</v>
       </c>
       <c r="Q22">
-        <v>16.74361749502786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.55464281886174</v>
+      </c>
+      <c r="R22">
+        <v>12.82286521531058</v>
+      </c>
+      <c r="S22">
+        <v>15.76065369181094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.62387159423303</v>
+        <v>23.03254001000182</v>
       </c>
       <c r="C23">
-        <v>13.44340964106008</v>
+        <v>13.73422027154121</v>
       </c>
       <c r="D23">
-        <v>6.10753360034195</v>
+        <v>6.211010891019844</v>
       </c>
       <c r="E23">
-        <v>8.616538568062794</v>
+        <v>8.510896441567041</v>
       </c>
       <c r="F23">
-        <v>23.44397374837755</v>
+        <v>22.34001577459212</v>
       </c>
       <c r="G23">
-        <v>27.82791771126876</v>
+        <v>28.6128319103302</v>
       </c>
       <c r="H23">
-        <v>1.57766150015266</v>
+        <v>1.571044594881605</v>
       </c>
       <c r="I23">
-        <v>2.59289439713893</v>
+        <v>2.626112450272319</v>
       </c>
       <c r="J23">
-        <v>9.675382614682846</v>
+        <v>8.81898894713755</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.503054483056927</v>
+        <v>11.64832933693938</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.96661895321437</v>
       </c>
       <c r="N23">
-        <v>7.422781271707186</v>
+        <v>6.446894544466709</v>
       </c>
       <c r="O23">
-        <v>14.49748555505123</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.70342355094516</v>
+        <v>7.633356225235882</v>
       </c>
       <c r="Q23">
-        <v>16.66543502209234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.36821975841156</v>
+      </c>
+      <c r="R23">
+        <v>12.82238737266326</v>
+      </c>
+      <c r="S23">
+        <v>15.80013403920347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.93824603321616</v>
+        <v>21.49687701909406</v>
       </c>
       <c r="C24">
-        <v>12.83743394359848</v>
+        <v>13.11617348459094</v>
       </c>
       <c r="D24">
-        <v>5.944523100832554</v>
+        <v>5.98218830216174</v>
       </c>
       <c r="E24">
-        <v>8.541843147940202</v>
+        <v>8.4403505182287</v>
       </c>
       <c r="F24">
-        <v>22.82075004412011</v>
+        <v>22.10160039829929</v>
       </c>
       <c r="G24">
-        <v>26.77727305000978</v>
+        <v>25.49159004502311</v>
       </c>
       <c r="H24">
-        <v>1.875965359342821</v>
+        <v>1.837894037478073</v>
       </c>
       <c r="I24">
-        <v>2.629008919372918</v>
+        <v>2.573335388146695</v>
       </c>
       <c r="J24">
-        <v>9.612817753140215</v>
+        <v>9.684712127243653</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.4617199275697</v>
+        <v>11.96680151372154</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.905338432110771</v>
       </c>
       <c r="N24">
-        <v>7.166241118580355</v>
+        <v>6.410931323104704</v>
       </c>
       <c r="O24">
-        <v>13.67625007710912</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.82432679776738</v>
+        <v>7.371843013782659</v>
       </c>
       <c r="Q24">
-        <v>16.35434580878987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.60534389629717</v>
+      </c>
+      <c r="R24">
+        <v>12.85804621282239</v>
+      </c>
+      <c r="S24">
+        <v>15.80234243546605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.95781086961298</v>
+        <v>19.59098750028938</v>
       </c>
       <c r="C25">
-        <v>12.15199161278252</v>
+        <v>12.27934841288696</v>
       </c>
       <c r="D25">
-        <v>5.767695363139845</v>
+        <v>5.801319639365605</v>
       </c>
       <c r="E25">
-        <v>8.459545595138884</v>
+        <v>8.374460069467728</v>
       </c>
       <c r="F25">
-        <v>22.16860339003796</v>
+        <v>21.56437183607609</v>
       </c>
       <c r="G25">
-        <v>25.65594301500066</v>
+        <v>24.33679520446017</v>
       </c>
       <c r="H25">
-        <v>2.212159937092911</v>
+        <v>2.150557607379283</v>
       </c>
       <c r="I25">
-        <v>2.895024719193411</v>
+        <v>2.809136955082314</v>
       </c>
       <c r="J25">
-        <v>9.558839321235256</v>
+        <v>9.699965367220587</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.414693658534352</v>
+        <v>12.22532576387239</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.78630755570682</v>
       </c>
       <c r="N25">
-        <v>6.881415984119589</v>
+        <v>6.365253354891941</v>
       </c>
       <c r="O25">
-        <v>12.73321313750628</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.96467086477398</v>
+        <v>7.076168152611473</v>
       </c>
       <c r="Q25">
-        <v>16.04192150025008</v>
+        <v>12.67289111521554</v>
+      </c>
+      <c r="R25">
+        <v>12.94806775894297</v>
+      </c>
+      <c r="S25">
+        <v>15.57507130164023</v>
       </c>
     </row>
   </sheetData>
